--- a/biology/Médecine/Jacques_Roux_(1923-2005)/Jacques_Roux_(1923-2005).xlsx
+++ b/biology/Médecine/Jacques_Roux_(1923-2005)/Jacques_Roux_(1923-2005).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jacques Roux, né le 6 janvier 1923 à Fargues-sur-Ourbise[1](Lot-et-Garonne) et mort le 5 avril 2005 à Castelnau-le-Lez[2] (Hérault), est un médecin, universitaire et homme politique membre du parti communiste français[1] français.
+Jacques Roux, né le 6 janvier 1923 à Fargues-sur-Ourbise(Lot-et-Garonne) et mort le 5 avril 2005 à Castelnau-le-Lez (Hérault), est un médecin, universitaire et homme politique membre du parti communiste français français.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Roux a interrompu ses études de médecine en 1943 et participé ensuite à la Résistance sous le pseudonyme « Jardel ».
-Docteur en médecine en 1950, agrégé en 1952, il devait être reconnu comme un spécialiste de la brucellose. Il a été maître de conférences à la faculté de médecine de Montpellier et chef du service de bactériologie-virologie au CHU de Montpellier[3].
-Le ministre de la santé Jack Ralite le nomme en novembre 1981 directeur général de la Santé[4], poste qu'il occupa jusqu'en 1986. À ce titre, il fut mis en cause lors de l'affaire du sang contaminé[5], en dépit des initiatives qu'il avait prises[6] dès le mois de juin 1983[7].
-Jacques Roux a adhéré au PCF en 1956. Du 16 mars 1986 au 14 mai 1988, il a été député de l'Hérault[2]. 
+Docteur en médecine en 1950, agrégé en 1952, il devait être reconnu comme un spécialiste de la brucellose. Il a été maître de conférences à la faculté de médecine de Montpellier et chef du service de bactériologie-virologie au CHU de Montpellier.
+Le ministre de la santé Jack Ralite le nomme en novembre 1981 directeur général de la Santé, poste qu'il occupa jusqu'en 1986. À ce titre, il fut mis en cause lors de l'affaire du sang contaminé, en dépit des initiatives qu'il avait prises dès le mois de juin 1983.
+Jacques Roux a adhéré au PCF en 1956. Du 16 mars 1986 au 14 mai 1988, il a été député de l'Hérault. 
 Il est membre de l'Académie nationale de médecine en 1973 et est élu en 1984 à la présidence du conseil exécutif de l'Organisation mondiale de la santé.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Santé en souffrance. La médecine face à la crise, Messidor/Éditions sociales, 1989
 Sang contaminé. Priorités de l'État et décisions politiques, Espaces 34, 1995</t>
